--- a/Supplementary Files/Supplementary_File_S1.xlsx
+++ b/Supplementary Files/Supplementary_File_S1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -73,12 +73,6 @@
     <t>GCF 000240135.3</t>
   </si>
   <si>
-    <t>GCA000188695.1</t>
-  </si>
-  <si>
-    <t>GCA000350225.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algae  </t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>[2] R. McVeigh, B. Rajput, B. Robbertse, B. Smith-White, D. Ako-Adjei et al., “Reference sequence (refseq) database at ncbi: current status, taxonomic expansion, and functional annotation,” Nucleic acids research, vol. 44, no. D1, pp. D733–D745, 2016.</t>
   </si>
   <si>
-    <t>[3] C. Quast, E. Pruesse, P. Yilmaz, J. Gerken, T. Schweer, P. Yarza, J. Peplies, and F. O. Gl¨ockner, “The SILVA ribosomal RNA gene database project: improved data processing and web-based tools,” Nucleic Acids Research, vol. 41, no. D1, pp. D590–D596, Nov. 2012. [Online]. Available: http://academic.oup.com/nar/article/41/D1/D590/1069277/The-SILVA-ribosomal-RNA-gene-database-project</t>
-  </si>
-  <si>
     <t>SILVA 132 LSURef [3]</t>
   </si>
   <si>
@@ -163,12 +154,6 @@
     <t>Tieghemostelium lacteum [1]</t>
   </si>
   <si>
-    <t>Salpingoeca rosetta [1]</t>
-  </si>
-  <si>
-    <t>Chondrus crispus [1]</t>
-  </si>
-  <si>
     <t>Kappaphycus alvarezii [1]</t>
   </si>
   <si>
@@ -307,7 +292,10 @@
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>A comprehensive-balanced dataset [4] containing the following sequences:</t>
+    <t>[3] C. Quast, E. Pruesse, P. Yilmaz, J. Gerken, T. Schweer, P. Yarza, J. Peplies, and F. O. Gl¨ockner, “The SILVA ribosomal RNA gene database project: improved data processing and web-based tools,” Nucleic Acids Research, vol. 41, no. D1, pp. D590–D596, Nov. 2012.</t>
+  </si>
+  <si>
+    <t>A comprehensive-balanced dataset [4] containing the following sequences</t>
   </si>
 </sst>
 </file>
@@ -336,25 +324,9 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -363,6 +335,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,9 +399,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -423,81 +409,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +448,52 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,57 +796,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>25</v>
+      <c r="D2" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -883,14 +856,14 @@
       <c r="D4" s="1">
         <v>50654</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -898,14 +871,14 @@
       <c r="D5" s="1">
         <v>521951</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -913,14 +886,14 @@
       <c r="D6" s="1">
         <v>1712167</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -928,14 +901,14 @@
       <c r="D7" s="1">
         <v>5809207</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -943,14 +916,14 @@
       <c r="D8" s="1">
         <v>9216802</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -958,14 +931,14 @@
       <c r="D9" s="1">
         <v>13142503</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -973,14 +946,14 @@
       <c r="D10" s="1">
         <v>23673089</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -988,569 +961,525 @@
       <c r="D11" s="1">
         <v>36915673</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>341012624</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1007867539</v>
+      </c>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="29">
+        <v>610296406</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="31">
+        <v>1108994702</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>56150373</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>106387446</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>341012624</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1007867539</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="15">
+        <v>18940</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="16">
+        <v>43970</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="16">
+        <v>73689</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1591049</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1667825</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="16">
+        <v>3890005</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4641652</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="16">
+        <v>8986712</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="16">
+        <v>10652155</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="16">
+        <v>26403087</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="16">
+        <v>32181429</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="16">
+        <v>43262523</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="16">
+        <v>62565020</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="16">
+        <v>148532294</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="17">
+        <v>189752667</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="23" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="11">
-        <v>610296406</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="14">
-        <v>1108994702</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="36">
-        <v>18940</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="37">
-        <v>43970</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="37">
-        <v>73689</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="37">
-        <v>1591049</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="37">
-        <v>1667825</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="37">
-        <v>3890005</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="37">
-        <v>4641652</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="37">
-        <v>8986712</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="37">
-        <v>10652155</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="37">
-        <v>26403087</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="37">
-        <v>32181429</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="37">
-        <v>43262523</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="37">
-        <v>62565020</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="37">
-        <v>148532294</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="38">
-        <v>189752667</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:I42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1"/>
-    <hyperlink ref="C21" r:id="rId2"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
